--- a/trabalho1/transcoder/SimTranscoder/resultados/data.xlsx
+++ b/trabalho1/transcoder/SimTranscoder/resultados/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="tempo x instâncias" sheetId="1" r:id="rId1"/>
@@ -162,11 +162,11 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -268,82 +268,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tempo x instâncias'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>teste 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'tempo x instâncias'!$A$5:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'tempo x instâncias'!$B$5:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7619</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7619</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
@@ -427,27 +351,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117316416"/>
-        <c:axId val="117314456"/>
+        <c:axId val="194099048"/>
+        <c:axId val="194098264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$C$4</c15:sqref>
+                          <c15:sqref>'tempo x instâncias'!$B$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>teste 2</c:v>
+                        <c:v>teste 1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -455,7 +379,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -498,6 +422,102 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'tempo x instâncias'!$B$5:$B$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>4.9000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.5999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.4000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7619</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7619</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'tempo x instâncias'!$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>teste 2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'tempo x instâncias'!$A$5:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'tempo x instâncias'!$C$5:$C$9</c15:sqref>
                         </c15:formulaRef>
@@ -819,7 +839,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117316416"/>
+        <c:axId val="194099048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,12 +952,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117314456"/>
+        <c:crossAx val="194098264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117314456"/>
+        <c:axId val="194098264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1053,7 +1073,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117316416"/>
+        <c:crossAx val="194099048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1238,8 +1258,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="117317200"/>
-        <c:axId val="117317592"/>
+        <c:axId val="194097872"/>
+        <c:axId val="194093560"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1339,7 +1359,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117317200"/>
+        <c:axId val="194097872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1391,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1438,7 +1457,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117317592"/>
+        <c:crossAx val="194093560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1446,7 +1465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117317592"/>
+        <c:axId val="194093560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1579,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117317200"/>
+        <c:crossAx val="194097872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,7 +1593,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1821,8 +1839,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317370096"/>
-        <c:axId val="317362648"/>
+        <c:axId val="194087680"/>
+        <c:axId val="194096696"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2213,7 +2231,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317370096"/>
+        <c:axId val="194087680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,12 +2344,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317362648"/>
+        <c:crossAx val="194096696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317362648"/>
+        <c:axId val="194096696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2447,7 +2465,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317370096"/>
+        <c:crossAx val="194087680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4347,8 +4365,8 @@
     <tableColumn id="3" name="teste 2" dataDxfId="4"/>
     <tableColumn id="4" name="teste 3" dataDxfId="3"/>
     <tableColumn id="5" name="teste 4" dataDxfId="2"/>
-    <tableColumn id="6" name="teste 5" dataDxfId="0"/>
-    <tableColumn id="7" name="MÉDIA (segundos):" dataDxfId="1">
+    <tableColumn id="6" name="teste 5" dataDxfId="1"/>
+    <tableColumn id="7" name="MÉDIA (segundos):" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(Tabela22[[#This Row],[teste 1]:[teste 5]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4646,8 +4664,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A4:M10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4949,7 +4967,7 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A4:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/trabalho1/transcoder/SimTranscoder/resultados/data.xlsx
+++ b/trabalho1/transcoder/SimTranscoder/resultados/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>instâncias</t>
   </si>
@@ -44,6 +44,18 @@
   <si>
     <t>movimentações</t>
   </si>
+  <si>
+    <t>ordenação completa</t>
+  </si>
+  <si>
+    <t>ordenação parcial</t>
+  </si>
+  <si>
+    <t>média2</t>
+  </si>
+  <si>
+    <t>média1</t>
+  </si>
 </sst>
 </file>
 
@@ -53,7 +65,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +98,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +134,18 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -120,11 +164,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,11 +270,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorreto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -204,35 +374,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -248,913 +391,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tempo x instâncias'!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MÉDIA (segundos):</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'tempo x instâncias'!$A$5:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'tempo x instâncias'!$G$5:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.0200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8153.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8153.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="194099048"/>
-        <c:axId val="194098264"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$B$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>teste 1</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$A$5:$A$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$B$5:$B$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0000</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>4.9000000000000002E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.5999999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6.4000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>7619</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7619</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$C$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>teste 2</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$A$5:$A$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$C$5:$C$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0000</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>4.5999999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.5999999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5.0999999999999997E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6644</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6644</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$D$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>teste 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$A$5:$A$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$D$5:$D$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0000</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>6.4000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.8000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5.2999999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8075</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8075</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$E$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>teste 4</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$A$5:$A$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$E$5:$E$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0000</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>4.7E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.06</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5.1999999999999998E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8103</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8103</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$F$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>teste 5</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$A$5:$A$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'tempo x instâncias'!$F$5:$F$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0000</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>4.4999999999999998E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.5999999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5.1999999999999998E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10326</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>10326</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="194099048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>tempo de execução (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="194098264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="194098264"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="100000"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>instâncias</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="194099048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1258,8 +494,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="194097872"/>
-        <c:axId val="194093560"/>
+        <c:axId val="269024848"/>
+        <c:axId val="269030336"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1359,7 +595,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194097872"/>
+        <c:axId val="269024848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +693,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194093560"/>
+        <c:crossAx val="269030336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1465,7 +701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194093560"/>
+        <c:axId val="269030336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +815,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194097872"/>
+        <c:crossAx val="269024848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1659,7 +895,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1839,8 +1075,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194087680"/>
-        <c:axId val="194096696"/>
+        <c:axId val="269024064"/>
+        <c:axId val="269033864"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2231,7 +1467,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194087680"/>
+        <c:axId val="269024064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +1513,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2344,12 +1579,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194096696"/>
+        <c:crossAx val="269033864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194096696"/>
+        <c:axId val="269033864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2398,7 +1633,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2465,7 +1699,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194087680"/>
+        <c:crossAx val="269024064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2479,7 +1713,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2626,47 +1859,510 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3182,1061 +2878,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>89994</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1051035</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166194</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4271,7 +2913,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4309,26 +2951,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A4:G9" totalsRowShown="0">
-  <autoFilter ref="A4:G9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A4:C9" totalsRowShown="0">
+  <autoFilter ref="A4:C9">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" name="instâncias" dataDxfId="15"/>
-    <tableColumn id="2" name="teste 1" dataDxfId="14"/>
-    <tableColumn id="3" name="teste 2" dataDxfId="13"/>
-    <tableColumn id="4" name="teste 3" dataDxfId="12"/>
-    <tableColumn id="5" name="teste 4" dataDxfId="11"/>
-    <tableColumn id="6" name="teste 5" dataDxfId="10"/>
-    <tableColumn id="7" name="MÉDIA (segundos):" dataDxfId="9">
-      <calculatedColumnFormula>AVERAGE(Tabela2[[#This Row],[teste 1]:[teste 5]])</calculatedColumnFormula>
-    </tableColumn>
+  <tableColumns count="3">
+    <tableColumn id="1" name="instâncias" dataDxfId="0"/>
+    <tableColumn id="2" name="média1" dataDxfId="1"/>
+    <tableColumn id="3" name="média2" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4341,8 +2973,8 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="instâncias" dataDxfId="8"/>
-    <tableColumn id="2" name="movimentações" dataDxfId="7"/>
+    <tableColumn id="1" name="instâncias" dataDxfId="10"/>
+    <tableColumn id="2" name="movimentações" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4360,13 +2992,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="instâncias" dataDxfId="6"/>
-    <tableColumn id="2" name="teste 1" dataDxfId="5"/>
-    <tableColumn id="3" name="teste 2" dataDxfId="4"/>
-    <tableColumn id="4" name="teste 3" dataDxfId="3"/>
-    <tableColumn id="5" name="teste 4" dataDxfId="2"/>
-    <tableColumn id="6" name="teste 5" dataDxfId="1"/>
-    <tableColumn id="7" name="MÉDIA (segundos):" dataDxfId="0">
+    <tableColumn id="1" name="instâncias" dataDxfId="8"/>
+    <tableColumn id="2" name="teste 1" dataDxfId="7"/>
+    <tableColumn id="3" name="teste 2" dataDxfId="6"/>
+    <tableColumn id="4" name="teste 3" dataDxfId="5"/>
+    <tableColumn id="5" name="teste 4" dataDxfId="4"/>
+    <tableColumn id="6" name="teste 5" dataDxfId="3"/>
+    <tableColumn id="7" name="MÉDIA (segundos):" dataDxfId="2">
       <calculatedColumnFormula>AVERAGE(Tabela22[[#This Row],[teste 1]:[teste 5]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4662,194 +3294,97 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A4:M10"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G5" s="8">
-        <f>AVERAGE(Tabela2[[#This Row],[teste 1]:[teste 5]])</f>
-        <v>5.0200000000000002E-2</v>
-      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>100</v>
       </c>
-      <c r="B6" s="9">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="F6" s="9">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="G6" s="8">
-        <f>AVERAGE(Tabela2[[#This Row],[teste 1]:[teste 5]])</f>
-        <v>4.9200000000000001E-2</v>
-      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>1000</v>
       </c>
-      <c r="B7" s="9">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="G7" s="8">
-        <f>AVERAGE(Tabela2[[#This Row],[teste 1]:[teste 5]])</f>
-        <v>5.439999999999999E-2</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>10000</v>
       </c>
-      <c r="B8" s="9">
-        <f>7559+60</f>
-        <v>7619</v>
-      </c>
-      <c r="C8" s="9">
-        <f>6584+60</f>
-        <v>6644</v>
-      </c>
-      <c r="D8" s="9">
-        <f>8015+60</f>
-        <v>8075</v>
-      </c>
-      <c r="E8" s="9">
-        <f>8043+60</f>
-        <v>8103</v>
-      </c>
-      <c r="F8" s="9">
-        <f>10266+60</f>
-        <v>10326</v>
-      </c>
-      <c r="G8" s="8">
-        <f>AVERAGE(Tabela2[[#This Row],[teste 1]:[teste 5]])</f>
-        <v>8153.4</v>
-      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>100000</v>
       </c>
-      <c r="B9" s="9">
-        <f>7559+60</f>
-        <v>7619</v>
-      </c>
-      <c r="C9" s="9">
-        <f>6584+60</f>
-        <v>6644</v>
-      </c>
-      <c r="D9" s="9">
-        <f>8015+60</f>
-        <v>8075</v>
-      </c>
-      <c r="E9" s="9">
-        <f>8043+60</f>
-        <v>8103</v>
-      </c>
-      <c r="F9" s="9">
-        <f>10266+60</f>
-        <v>10326</v>
-      </c>
-      <c r="G9" s="8">
-        <f>AVERAGE(Tabela2[[#This Row],[teste 1]:[teste 5]])</f>
-        <v>8153.4</v>
-      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/trabalho1/transcoder/SimTranscoder/resultados/data.xlsx
+++ b/trabalho1/transcoder/SimTranscoder/resultados/data.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tempo x instâncias" sheetId="1" r:id="rId1"/>
     <sheet name="Plan1" sheetId="2" r:id="rId2"/>
     <sheet name="tempo x instâncias (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="tempo x instâncias (3)" sheetId="4" r:id="rId4"/>
+    <sheet name="movimentações x instâncias" sheetId="5" r:id="rId5"/>
+    <sheet name="TADs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>instâncias</t>
   </si>
@@ -51,10 +54,76 @@
     <t>ordenação parcial</t>
   </si>
   <si>
-    <t>média2</t>
+    <t>completa</t>
   </si>
   <si>
-    <t>média1</t>
+    <t>parcial</t>
+  </si>
+  <si>
+    <t>tipo de ordenação:</t>
+  </si>
+  <si>
+    <t>INSTÂNCIAS:</t>
+  </si>
+  <si>
+    <t>TEMPO DE EXECUÇÃO (segundos):</t>
+  </si>
+  <si>
+    <t>instâncias:</t>
+  </si>
+  <si>
+    <t>média:</t>
+  </si>
+  <si>
+    <t>MOVIMENTAÇÕES:</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Quantas vezes mais rápida é a ordenção parcial em relação a ordenação completa</t>
+  </si>
+  <si>
+    <t>Quantas movimentações a mais a ordenação completa realiza em relação a ordenação parcial</t>
+  </si>
+  <si>
+    <t>diferença de movimentções:</t>
+  </si>
+  <si>
+    <t>dado</t>
+  </si>
+  <si>
+    <t>enfileirar</t>
+  </si>
+  <si>
+    <t>desenfileirar</t>
+  </si>
+  <si>
+    <t>vazia</t>
+  </si>
+  <si>
+    <t>analytics</t>
+  </si>
+  <si>
+    <t>FILA</t>
+  </si>
+  <si>
+    <t>construir</t>
+  </si>
+  <si>
+    <t>destruir</t>
+  </si>
+  <si>
+    <t>construtor: cria e inicializa uma instância do TAD</t>
+  </si>
+  <si>
+    <t>atuador: modifica uma instância do TAD</t>
+  </si>
+  <si>
+    <t>obtentor: retorna dados de uma instância</t>
+  </si>
+  <si>
+    <t>iteradores: processa componentes de dados individualmente</t>
   </si>
 </sst>
 </file>
@@ -65,7 +134,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +189,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +267,19 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -232,13 +366,281 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,12 +672,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -291,13 +687,169 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Cálculo" xfId="5" builtinId="22"/>
     <cellStyle name="Incorreto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Saída" xfId="4" builtinId="21"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -316,6 +868,36 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -325,6 +907,23 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top/>
         <bottom/>
         <vertical/>
@@ -372,10 +971,6 @@
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -494,8 +1089,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269024848"/>
-        <c:axId val="269030336"/>
+        <c:axId val="204789152"/>
+        <c:axId val="204793072"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -595,7 +1190,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269024848"/>
+        <c:axId val="204789152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +1288,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269030336"/>
+        <c:crossAx val="204793072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +1296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269030336"/>
+        <c:axId val="204793072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +1410,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269024848"/>
+        <c:crossAx val="204789152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,8 +1670,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269024064"/>
-        <c:axId val="269033864"/>
+        <c:axId val="204792680"/>
+        <c:axId val="204793464"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1467,7 +2062,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269024064"/>
+        <c:axId val="204792680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,12 +2174,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269033864"/>
+        <c:crossAx val="204793464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269033864"/>
+        <c:axId val="204793464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1699,7 +2294,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269024064"/>
+        <c:crossAx val="204792680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2951,36 +3546,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A4:C9" totalsRowShown="0">
-  <autoFilter ref="A4:C9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" name="instâncias" dataDxfId="0"/>
-    <tableColumn id="2" name="média1" dataDxfId="1"/>
-    <tableColumn id="3" name="média2" dataDxfId="11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="instâncias" dataDxfId="16"/>
+    <tableColumn id="2" name="movimentações" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" name="instâncias" dataDxfId="10"/>
-    <tableColumn id="2" name="movimentações" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A4:G9" totalsRowShown="0">
   <autoFilter ref="A4:G9">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -2992,15 +3571,53 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="instâncias" dataDxfId="8"/>
-    <tableColumn id="2" name="teste 1" dataDxfId="7"/>
-    <tableColumn id="3" name="teste 2" dataDxfId="6"/>
-    <tableColumn id="4" name="teste 3" dataDxfId="5"/>
-    <tableColumn id="5" name="teste 4" dataDxfId="4"/>
-    <tableColumn id="6" name="teste 5" dataDxfId="3"/>
-    <tableColumn id="7" name="MÉDIA (segundos):" dataDxfId="2">
+    <tableColumn id="1" name="instâncias" dataDxfId="14"/>
+    <tableColumn id="2" name="teste 1" dataDxfId="13"/>
+    <tableColumn id="3" name="teste 2" dataDxfId="12"/>
+    <tableColumn id="4" name="teste 3" dataDxfId="11"/>
+    <tableColumn id="5" name="teste 4" dataDxfId="10"/>
+    <tableColumn id="6" name="teste 5" dataDxfId="9"/>
+    <tableColumn id="7" name="MÉDIA (segundos):" dataDxfId="8">
       <calculatedColumnFormula>AVERAGE(Tabela22[[#This Row],[teste 1]:[teste 5]])</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela28" displayName="Tabela28" ref="B7:E14" totalsRowShown="0">
+  <autoFilter ref="B7:E14">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="instâncias:" dataDxfId="7"/>
+    <tableColumn id="2" name="ordenação completa" dataDxfId="6"/>
+    <tableColumn id="3" name="ordenação parcial" dataDxfId="5"/>
+    <tableColumn id="4" name="média:" dataDxfId="4" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela28[[#This Row],[ordenação parcial]]/Tabela28[[#This Row],[ordenação completa]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela289" displayName="Tabela289" ref="B7:E14" totalsRowShown="0">
+  <autoFilter ref="B7:E14">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="instâncias:" dataDxfId="3"/>
+    <tableColumn id="2" name="ordenação completa" dataDxfId="2"/>
+    <tableColumn id="3" name="ordenação parcial" dataDxfId="1"/>
+    <tableColumn id="4" name="diferença de movimentções:" dataDxfId="0" dataCellStyle="Porcentagem"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3294,98 +3911,95 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A2:E10"/>
+  <dimension ref="B6:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="16">
         <v>10</v>
       </c>
+      <c r="D7" s="16">
+        <v>100</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="16">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="16">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="I7" s="19">
+        <v>10000000</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="21"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>100</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>10000</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>100000</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -3691,4 +4305,444 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E8" s="25">
+        <f>Tabela28[[#This Row],[ordenação parcial]]/Tabela28[[#This Row],[ordenação completa]]</f>
+        <v>0.12472160356347439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>100</v>
+      </c>
+      <c r="C9" s="13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E9" s="25">
+        <f>Tabela28[[#This Row],[ordenação parcial]]/Tabela28[[#This Row],[ordenação completa]]</f>
+        <v>1.2592592592592593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E10" s="25">
+        <f>Tabela28[[#This Row],[ordenação parcial]]/Tabela28[[#This Row],[ordenação completa]]</f>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E11" s="25">
+        <f>Tabela28[[#This Row],[ordenação parcial]]/Tabela28[[#This Row],[ordenação completa]]</f>
+        <v>0.5643274853801169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>100000</v>
+      </c>
+      <c r="C12" s="13">
+        <v>122.435</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E12" s="25">
+        <f>Tabela28[[#This Row],[ordenação parcial]]/Tabela28[[#This Row],[ordenação completa]]</f>
+        <v>2.7443133091027893E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.9790000000000001</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9">
+        <v>31.658000000000001</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E13:E14" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24">
+        <f>Tabela289[[#This Row],[ordenação completa]]-Tabela289[[#This Row],[ordenação parcial]]</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>100</v>
+      </c>
+      <c r="C9" s="22">
+        <v>744</v>
+      </c>
+      <c r="D9" s="22">
+        <v>300</v>
+      </c>
+      <c r="E9" s="24">
+        <f>Tabela289[[#This Row],[ordenação completa]]-Tabela289[[#This Row],[ordenação parcial]]</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="22">
+        <v>192058</v>
+      </c>
+      <c r="D10" s="22">
+        <v>7363</v>
+      </c>
+      <c r="E10" s="24">
+        <f>Tabela289[[#This Row],[ordenação completa]]-Tabela289[[#This Row],[ordenação parcial]]</f>
+        <v>184695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="22">
+        <v>19302127</v>
+      </c>
+      <c r="D11" s="22">
+        <v>99764</v>
+      </c>
+      <c r="E11" s="24">
+        <f>Tabela289[[#This Row],[ordenação completa]]-Tabela289[[#This Row],[ordenação parcial]]</f>
+        <v>19202363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>100000</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1996492145</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1268375</v>
+      </c>
+      <c r="E12" s="24">
+        <f>Tabela289[[#This Row],[ordenação completa]]-Tabela289[[#This Row],[ordenação parcial]]</f>
+        <v>1995223770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="22">
+        <v>15245461</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="22">
+        <v>179474307</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="44"/>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="44"/>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A2:E5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>